--- a/baseline_model_workshop/data/demand_all_orginal.xlsx
+++ b/baseline_model_workshop/data/demand_all_orginal.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yin\Desktop\bay\Long_Term_Housing_Planning\baseline_model_workshop\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{568BBE0B-35B4-4C96-890E-AF4F1888E6E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A7098EE-19B8-4EAF-814A-0FCB73F27F03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1068" yWindow="-108" windowWidth="29760" windowHeight="17496" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="16440" windowHeight="29040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -545,13 +545,14 @@
   <dimension ref="A1:M47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P14" sqref="P14"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="8.88671875" style="1"/>
+    <col min="2" max="2" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
@@ -600,18 +601,18 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <f>AVERAGE(D2:M2)</f>
-        <v>0.4</v>
+        <f t="shared" ref="B2:B47" si="0">AVERAGE(D2:M2)</f>
+        <v>0.3</v>
       </c>
       <c r="C2" s="2">
-        <f>_xlfn.STDEV.P(D2:M2)</f>
-        <v>1.2</v>
+        <f t="shared" ref="C2:C47" si="1">_xlfn.STDEV.P(D2:M2)</f>
+        <v>0.9</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -643,27 +644,27 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <f>AVERAGE(D3:M3)</f>
-        <v>14.8</v>
+        <f t="shared" si="0"/>
+        <v>8.1999999999999993</v>
       </c>
       <c r="C3" s="2">
-        <f>_xlfn.STDEV.P(D3:M3)</f>
-        <v>27.385397568777417</v>
+        <f t="shared" si="1"/>
+        <v>14.931845163944073</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>79</v>
+        <v>43</v>
       </c>
       <c r="H3">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="I3">
         <v>2</v>
@@ -686,39 +687,39 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <f>AVERAGE(D4:M4)</f>
-        <v>4.5</v>
+        <f t="shared" si="0"/>
+        <v>2.4</v>
       </c>
       <c r="C4" s="2">
-        <f>_xlfn.STDEV.P(D4:M4)</f>
-        <v>5.3712196007983142</v>
+        <f t="shared" si="1"/>
+        <v>2.9051678092667901</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>6</v>
+      </c>
+      <c r="H4">
+        <v>6</v>
+      </c>
+      <c r="I4">
+        <v>8</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
         <v>2</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>11</v>
-      </c>
-      <c r="H4">
-        <v>11</v>
-      </c>
-      <c r="I4">
-        <v>15</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>2</v>
-      </c>
-      <c r="L4">
-        <v>4</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -729,18 +730,18 @@
         <v>4</v>
       </c>
       <c r="B5" s="2">
-        <f>AVERAGE(D5:M5)</f>
-        <v>3</v>
+        <f t="shared" si="0"/>
+        <v>2.2000000000000002</v>
       </c>
       <c r="C5" s="2">
-        <f>_xlfn.STDEV.P(D5:M5)</f>
-        <v>9</v>
+        <f t="shared" si="1"/>
+        <v>6.6000000000000005</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -772,39 +773,39 @@
         <v>5</v>
       </c>
       <c r="B6" s="2">
-        <f>AVERAGE(D6:M6)</f>
-        <v>8.8000000000000007</v>
+        <f t="shared" si="0"/>
+        <v>4.9000000000000004</v>
       </c>
       <c r="C6" s="2">
-        <f>_xlfn.STDEV.P(D6:M6)</f>
-        <v>9.9277389167926859</v>
+        <f t="shared" si="1"/>
+        <v>5.4854352607609913</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="H6">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="I6">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J6">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K6">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="L6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -815,30 +816,30 @@
         <v>6</v>
       </c>
       <c r="B7" s="2">
-        <f>AVERAGE(D7:M7)</f>
-        <v>8.3000000000000007</v>
+        <f t="shared" si="0"/>
+        <v>4.5</v>
       </c>
       <c r="C7" s="2">
-        <f>_xlfn.STDEV.P(D7:M7)</f>
-        <v>10.964032105024136</v>
+        <f t="shared" si="1"/>
+        <v>5.8694122363316756</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
+        <v>7</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>17</v>
+      </c>
+      <c r="H7">
         <v>12</v>
       </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>31</v>
-      </c>
-      <c r="H7">
-        <v>23</v>
-      </c>
       <c r="I7">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="J7">
         <v>1</v>
@@ -858,42 +859,42 @@
         <v>7</v>
       </c>
       <c r="B8" s="2">
-        <f>AVERAGE(D8:M8)</f>
-        <v>478.4</v>
+        <f t="shared" si="0"/>
+        <v>283.5</v>
       </c>
       <c r="C8" s="2">
-        <f>_xlfn.STDEV.P(D8:M8)</f>
-        <v>428.85410106468612</v>
+        <f t="shared" si="1"/>
+        <v>255.26780055463323</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>76</v>
+        <v>46</v>
       </c>
       <c r="F8">
-        <v>407</v>
+        <v>240</v>
       </c>
       <c r="G8">
-        <v>128</v>
+        <v>74</v>
       </c>
       <c r="H8">
-        <v>887</v>
+        <v>528</v>
       </c>
       <c r="I8">
-        <v>635</v>
+        <v>373</v>
       </c>
       <c r="J8">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="K8">
-        <v>313</v>
+        <v>183</v>
       </c>
       <c r="L8">
-        <v>1278</v>
+        <v>764</v>
       </c>
       <c r="M8">
-        <v>1008</v>
+        <v>595</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
@@ -901,42 +902,42 @@
         <v>8</v>
       </c>
       <c r="B9" s="2">
-        <f>AVERAGE(D9:M9)</f>
-        <v>1338.4</v>
+        <f t="shared" si="0"/>
+        <v>792.2</v>
       </c>
       <c r="C9" s="2">
-        <f>_xlfn.STDEV.P(D9:M9)</f>
-        <v>1037.8990509678674</v>
+        <f t="shared" si="1"/>
+        <v>615.02744654202218</v>
       </c>
       <c r="D9">
-        <v>1941</v>
+        <v>1145</v>
       </c>
       <c r="E9">
-        <v>1217</v>
+        <v>720</v>
       </c>
       <c r="F9">
-        <v>727</v>
+        <v>431</v>
       </c>
       <c r="G9">
-        <v>3908</v>
+        <v>2313</v>
       </c>
       <c r="H9">
-        <v>792</v>
+        <v>468</v>
       </c>
       <c r="I9">
-        <v>429</v>
+        <v>254</v>
       </c>
       <c r="J9">
-        <v>1885</v>
+        <v>1120</v>
       </c>
       <c r="K9">
-        <v>1724</v>
+        <v>1026</v>
       </c>
       <c r="L9">
-        <v>311</v>
+        <v>180</v>
       </c>
       <c r="M9">
-        <v>450</v>
+        <v>265</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
@@ -944,36 +945,36 @@
         <v>9</v>
       </c>
       <c r="B10" s="2">
-        <f>AVERAGE(D10:M10)</f>
-        <v>12.3</v>
+        <f t="shared" si="0"/>
+        <v>7</v>
       </c>
       <c r="C10" s="2">
-        <f>_xlfn.STDEV.P(D10:M10)</f>
-        <v>15.369124893760217</v>
+        <f t="shared" si="1"/>
+        <v>8.7977269791691093</v>
       </c>
       <c r="D10">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E10">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="H10">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="K10">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -987,42 +988,42 @@
         <v>10</v>
       </c>
       <c r="B11" s="2">
-        <f>AVERAGE(D11:M11)</f>
-        <v>4101.7</v>
+        <f t="shared" si="0"/>
+        <v>2394.6999999999998</v>
       </c>
       <c r="C11" s="2">
-        <f>_xlfn.STDEV.P(D11:M11)</f>
-        <v>1362.5036550409691</v>
+        <f t="shared" si="1"/>
+        <v>800.59740818965929</v>
       </c>
       <c r="D11">
-        <v>3787</v>
+        <v>2207</v>
       </c>
       <c r="E11">
-        <v>3737</v>
+        <v>2164</v>
       </c>
       <c r="F11">
-        <v>4066</v>
+        <v>2380</v>
       </c>
       <c r="G11">
-        <v>7074</v>
+        <v>4146</v>
       </c>
       <c r="H11">
-        <v>3411</v>
+        <v>1983</v>
       </c>
       <c r="I11">
-        <v>3080</v>
+        <v>1805</v>
       </c>
       <c r="J11">
-        <v>5917</v>
+        <v>3460</v>
       </c>
       <c r="K11">
-        <v>4683</v>
+        <v>2734</v>
       </c>
       <c r="L11">
-        <v>2541</v>
+        <v>1484</v>
       </c>
       <c r="M11">
-        <v>2721</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
@@ -1030,18 +1031,18 @@
         <v>11</v>
       </c>
       <c r="B12" s="2">
-        <f>AVERAGE(D12:M12)</f>
-        <v>7.1</v>
+        <f t="shared" si="0"/>
+        <v>4</v>
       </c>
       <c r="C12" s="2">
-        <f>_xlfn.STDEV.P(D12:M12)</f>
-        <v>21.3</v>
+        <f t="shared" si="1"/>
+        <v>12</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>71</v>
+        <v>40</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -1073,18 +1074,18 @@
         <v>12</v>
       </c>
       <c r="B13" s="2">
-        <f>AVERAGE(D13:M13)</f>
-        <v>6.9</v>
+        <f t="shared" si="0"/>
+        <v>3.7</v>
       </c>
       <c r="C13" s="2">
-        <f>_xlfn.STDEV.P(D13:M13)</f>
-        <v>16.567739737212197</v>
+        <f t="shared" si="1"/>
+        <v>9.0116591147246581</v>
       </c>
       <c r="D13">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E13">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -1116,18 +1117,18 @@
         <v>13</v>
       </c>
       <c r="B14" s="2">
-        <f>AVERAGE(D14:M14)</f>
-        <v>5.0999999999999996</v>
+        <f t="shared" si="0"/>
+        <v>2.8</v>
       </c>
       <c r="C14" s="2">
-        <f>_xlfn.STDEV.P(D14:M14)</f>
-        <v>8.6999999999999993</v>
+        <f t="shared" si="1"/>
+        <v>4.6432747064975599</v>
       </c>
       <c r="D14">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E14">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -1142,7 +1143,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1159,36 +1160,36 @@
         <v>14</v>
       </c>
       <c r="B15" s="2">
-        <f>AVERAGE(D15:M15)</f>
-        <v>60.7</v>
+        <f t="shared" si="0"/>
+        <v>33.6</v>
       </c>
       <c r="C15" s="2">
-        <f>_xlfn.STDEV.P(D15:M15)</f>
-        <v>67.933864898149295</v>
+        <f t="shared" si="1"/>
+        <v>38.103018253151546</v>
       </c>
       <c r="D15">
-        <v>134</v>
+        <v>74</v>
       </c>
       <c r="E15">
-        <v>103</v>
+        <v>56</v>
       </c>
       <c r="F15">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="G15">
-        <v>216</v>
+        <v>122</v>
       </c>
       <c r="H15">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="K15">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1202,42 +1203,42 @@
         <v>15</v>
       </c>
       <c r="B16" s="2">
-        <f>AVERAGE(D16:M16)</f>
-        <v>91.4</v>
+        <f t="shared" si="0"/>
+        <v>51</v>
       </c>
       <c r="C16" s="2">
-        <f>_xlfn.STDEV.P(D16:M16)</f>
-        <v>51.342380155189531</v>
+        <f t="shared" si="1"/>
+        <v>28.920580907028821</v>
       </c>
       <c r="D16">
+        <v>10</v>
+      </c>
+      <c r="E16">
+        <v>27</v>
+      </c>
+      <c r="F16">
+        <v>37</v>
+      </c>
+      <c r="G16">
+        <v>75</v>
+      </c>
+      <c r="H16">
+        <v>94</v>
+      </c>
+      <c r="I16">
+        <v>90</v>
+      </c>
+      <c r="J16">
         <v>19</v>
       </c>
-      <c r="E16">
-        <v>50</v>
-      </c>
-      <c r="F16">
-        <v>65</v>
-      </c>
-      <c r="G16">
-        <v>134</v>
-      </c>
-      <c r="H16">
-        <v>168</v>
-      </c>
-      <c r="I16">
-        <v>159</v>
-      </c>
-      <c r="J16">
-        <v>35</v>
-      </c>
       <c r="K16">
-        <v>132</v>
+        <v>73</v>
       </c>
       <c r="L16">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="M16">
-        <v>52</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
@@ -1245,24 +1246,24 @@
         <v>16</v>
       </c>
       <c r="B17" s="2">
-        <f>AVERAGE(D17:M17)</f>
-        <v>19.3</v>
+        <f t="shared" si="0"/>
+        <v>10.7</v>
       </c>
       <c r="C17" s="2">
-        <f>_xlfn.STDEV.P(D17:M17)</f>
-        <v>24.203512141835944</v>
+        <f t="shared" si="1"/>
+        <v>13.183702059740277</v>
       </c>
       <c r="D17">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="E17">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="F17">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="G17">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1271,7 +1272,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>76</v>
+        <v>41</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1288,12 +1289,12 @@
         <v>17</v>
       </c>
       <c r="B18" s="2">
-        <f>AVERAGE(D18:M18)</f>
-        <v>9</v>
+        <f t="shared" si="0"/>
+        <v>4.8</v>
       </c>
       <c r="C18" s="2">
-        <f>_xlfn.STDEV.P(D18:M18)</f>
-        <v>18.270194306574847</v>
+        <f t="shared" si="1"/>
+        <v>9.7652444925869624</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -1302,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1314,7 +1315,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1331,42 +1332,42 @@
         <v>18</v>
       </c>
       <c r="B19" s="2">
-        <f>AVERAGE(D19:M19)</f>
-        <v>631.4</v>
+        <f t="shared" si="0"/>
+        <v>372.4</v>
       </c>
       <c r="C19" s="2">
-        <f>_xlfn.STDEV.P(D19:M19)</f>
-        <v>387.92710655482688</v>
+        <f t="shared" si="1"/>
+        <v>230.54509320304348</v>
       </c>
       <c r="D19">
-        <v>535</v>
+        <v>313</v>
       </c>
       <c r="E19">
-        <v>953</v>
+        <v>564</v>
       </c>
       <c r="F19">
-        <v>399</v>
+        <v>235</v>
       </c>
       <c r="G19">
-        <v>1534</v>
+        <v>908</v>
       </c>
       <c r="H19">
-        <v>636</v>
+        <v>376</v>
       </c>
       <c r="I19">
-        <v>212</v>
+        <v>121</v>
       </c>
       <c r="J19">
-        <v>630</v>
+        <v>372</v>
       </c>
       <c r="K19">
-        <v>895</v>
+        <v>530</v>
       </c>
       <c r="L19">
-        <v>227</v>
+        <v>133</v>
       </c>
       <c r="M19">
-        <v>293</v>
+        <v>172</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
@@ -1374,27 +1375,27 @@
         <v>19</v>
       </c>
       <c r="B20" s="2">
-        <f>AVERAGE(D20:M20)</f>
-        <v>2.2000000000000002</v>
+        <f t="shared" si="0"/>
+        <v>1.3</v>
       </c>
       <c r="C20" s="2">
-        <f>_xlfn.STDEV.P(D20:M20)</f>
-        <v>3.4871191548325386</v>
+        <f t="shared" si="1"/>
+        <v>2.0518284528683193</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
         <v>5</v>
       </c>
-      <c r="F20">
-        <v>0</v>
-      </c>
-      <c r="G20">
-        <v>9</v>
-      </c>
       <c r="H20">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1417,33 +1418,33 @@
         <v>20</v>
       </c>
       <c r="B21" s="2">
-        <f>AVERAGE(D21:M21)</f>
-        <v>8.3000000000000007</v>
+        <f t="shared" si="0"/>
+        <v>4.5999999999999996</v>
       </c>
       <c r="C21" s="2">
-        <f>_xlfn.STDEV.P(D21:M21)</f>
-        <v>17.804774640528308</v>
+        <f t="shared" si="1"/>
+        <v>9.9216934038499698</v>
       </c>
       <c r="D21">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E21">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H21">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1460,36 +1461,36 @@
         <v>21</v>
       </c>
       <c r="B22" s="2">
-        <f>AVERAGE(D22:M22)</f>
-        <v>68.5</v>
+        <f t="shared" si="0"/>
+        <v>37.799999999999997</v>
       </c>
       <c r="C22" s="2">
-        <f>_xlfn.STDEV.P(D22:M22)</f>
-        <v>97.844008503331466</v>
+        <f t="shared" si="1"/>
+        <v>54.810218025474043</v>
       </c>
       <c r="D22">
-        <v>97</v>
+        <v>53</v>
       </c>
       <c r="E22">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="F22">
-        <v>106</v>
+        <v>57</v>
       </c>
       <c r="G22">
-        <v>96</v>
+        <v>50</v>
       </c>
       <c r="H22">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>334</v>
+        <v>188</v>
       </c>
       <c r="K22">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1503,42 +1504,42 @@
         <v>22</v>
       </c>
       <c r="B23" s="2">
-        <f>AVERAGE(D23:M23)</f>
-        <v>208.6</v>
+        <f t="shared" si="0"/>
+        <v>120.1</v>
       </c>
       <c r="C23" s="2">
-        <f>_xlfn.STDEV.P(D23:M23)</f>
-        <v>331.91300064926651</v>
+        <f t="shared" si="1"/>
+        <v>192.55879621559748</v>
       </c>
       <c r="D23">
-        <v>127</v>
+        <v>71</v>
       </c>
       <c r="E23">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F23">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="G23">
-        <v>770</v>
+        <v>440</v>
       </c>
       <c r="H23">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I23">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="J23">
-        <v>955</v>
+        <v>558</v>
       </c>
       <c r="K23">
-        <v>99</v>
+        <v>57</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
@@ -1546,18 +1547,18 @@
         <v>23</v>
       </c>
       <c r="B24" s="2">
-        <f>AVERAGE(D24:M24)</f>
-        <v>23.3</v>
+        <f t="shared" si="0"/>
+        <v>12.5</v>
       </c>
       <c r="C24" s="2">
-        <f>_xlfn.STDEV.P(D24:M24)</f>
-        <v>69.900000000000006</v>
+        <f t="shared" si="1"/>
+        <v>37.5</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>233</v>
+        <v>125</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -1589,18 +1590,18 @@
         <v>24</v>
       </c>
       <c r="B25" s="2">
-        <f>AVERAGE(D25:M25)</f>
-        <v>1.8</v>
+        <f t="shared" si="0"/>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C25" s="2">
-        <f>_xlfn.STDEV.P(D25:M25)</f>
-        <v>5.4</v>
+        <f t="shared" si="1"/>
+        <v>3.3000000000000003</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -1632,42 +1633,42 @@
         <v>25</v>
       </c>
       <c r="B26" s="2">
-        <f>AVERAGE(D26:M26)</f>
-        <v>15.7</v>
+        <f t="shared" si="0"/>
+        <v>8.6999999999999993</v>
       </c>
       <c r="C26" s="2">
-        <f>_xlfn.STDEV.P(D26:M26)</f>
-        <v>15.543809056984713</v>
+        <f t="shared" si="1"/>
+        <v>8.4148677945645716</v>
       </c>
       <c r="D26">
         <v>0</v>
       </c>
       <c r="E26">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F26">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G26">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="H26">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="I26">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="J26">
         <v>1</v>
       </c>
       <c r="K26">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="L26">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="M26">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
@@ -1675,36 +1676,36 @@
         <v>26</v>
       </c>
       <c r="B27" s="2">
-        <f>AVERAGE(D27:M27)</f>
-        <v>337.9</v>
+        <f t="shared" si="0"/>
+        <v>198.9</v>
       </c>
       <c r="C27" s="2">
-        <f>_xlfn.STDEV.P(D27:M27)</f>
-        <v>904.27556087732466</v>
+        <f t="shared" si="1"/>
+        <v>532.22409753786985</v>
       </c>
       <c r="D27">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="E27">
         <v>0</v>
       </c>
       <c r="F27">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="G27">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="H27">
         <v>0</v>
       </c>
       <c r="I27">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="J27">
-        <v>3048</v>
+        <v>1794</v>
       </c>
       <c r="K27">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="L27">
         <v>0</v>
@@ -1718,42 +1719,42 @@
         <v>27</v>
       </c>
       <c r="B28" s="2">
-        <f>AVERAGE(D28:M28)</f>
-        <v>24.8</v>
+        <f t="shared" si="0"/>
+        <v>14.1</v>
       </c>
       <c r="C28" s="2">
-        <f>_xlfn.STDEV.P(D28:M28)</f>
-        <v>19.077735714701575</v>
+        <f t="shared" si="1"/>
+        <v>10.577806956075536</v>
       </c>
       <c r="D28">
         <v>0</v>
       </c>
       <c r="E28">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F28">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="G28">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="H28">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="I28">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="J28">
         <v>3</v>
       </c>
       <c r="K28">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="L28">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="M28">
-        <v>37</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
@@ -1761,33 +1762,33 @@
         <v>28</v>
       </c>
       <c r="B29" s="2">
-        <f>AVERAGE(D29:M29)</f>
-        <v>28.5</v>
+        <f t="shared" si="0"/>
+        <v>16.3</v>
       </c>
       <c r="C29" s="2">
-        <f>_xlfn.STDEV.P(D29:M29)</f>
-        <v>43.704118799033118</v>
+        <f t="shared" si="1"/>
+        <v>24.670022294274482</v>
       </c>
       <c r="D29">
+        <v>44</v>
+      </c>
+      <c r="E29">
         <v>79</v>
       </c>
-      <c r="E29">
-        <v>139</v>
-      </c>
       <c r="F29">
         <v>0</v>
       </c>
       <c r="G29">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="H29">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I29">
         <v>0</v>
       </c>
       <c r="J29">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="K29">
         <v>0</v>
@@ -1804,18 +1805,18 @@
         <v>29</v>
       </c>
       <c r="B30" s="2">
-        <f>AVERAGE(D30:M30)</f>
-        <v>19.100000000000001</v>
+        <f t="shared" si="0"/>
+        <v>10.7</v>
       </c>
       <c r="C30" s="2">
-        <f>_xlfn.STDEV.P(D30:M30)</f>
-        <v>34.555607359732512</v>
+        <f t="shared" si="1"/>
+        <v>19.287560758167427</v>
       </c>
       <c r="D30">
-        <v>96</v>
+        <v>54</v>
       </c>
       <c r="E30">
-        <v>78</v>
+        <v>43</v>
       </c>
       <c r="F30">
         <v>0</v>
@@ -1830,7 +1831,7 @@
         <v>0</v>
       </c>
       <c r="J30">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="K30">
         <v>0</v>
@@ -1847,18 +1848,18 @@
         <v>30</v>
       </c>
       <c r="B31" s="2">
-        <f>AVERAGE(D31:M31)</f>
-        <v>3.9</v>
+        <f t="shared" si="0"/>
+        <v>2.1</v>
       </c>
       <c r="C31" s="2">
-        <f>_xlfn.STDEV.P(D31:M31)</f>
-        <v>11.7</v>
+        <f t="shared" si="1"/>
+        <v>6.3</v>
       </c>
       <c r="D31">
         <v>0</v>
       </c>
       <c r="E31">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="F31">
         <v>0</v>
@@ -1890,24 +1891,24 @@
         <v>31</v>
       </c>
       <c r="B32" s="2">
-        <f>AVERAGE(D32:M32)</f>
+        <f t="shared" si="0"/>
+        <v>5.9</v>
+      </c>
+      <c r="C32" s="2">
+        <f t="shared" si="1"/>
+        <v>9.0493093659129595</v>
+      </c>
+      <c r="D32">
+        <v>30</v>
+      </c>
+      <c r="E32">
         <v>11</v>
       </c>
-      <c r="C32" s="2">
-        <f>_xlfn.STDEV.P(D32:M32)</f>
-        <v>16.751119365582706</v>
-      </c>
-      <c r="D32">
-        <v>55</v>
-      </c>
-      <c r="E32">
-        <v>21</v>
-      </c>
       <c r="F32">
         <v>0</v>
       </c>
       <c r="G32">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="H32">
         <v>1</v>
@@ -1916,7 +1917,7 @@
         <v>0</v>
       </c>
       <c r="J32">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="K32">
         <v>0</v>
@@ -1933,33 +1934,33 @@
         <v>32</v>
       </c>
       <c r="B33" s="2">
-        <f>AVERAGE(D33:M33)</f>
-        <v>60.2</v>
+        <f t="shared" si="0"/>
+        <v>34.4</v>
       </c>
       <c r="C33" s="2">
-        <f>_xlfn.STDEV.P(D33:M33)</f>
-        <v>93.734518721760125</v>
+        <f t="shared" si="1"/>
+        <v>53.10028248512431</v>
       </c>
       <c r="D33">
         <v>0</v>
       </c>
       <c r="E33">
-        <v>257</v>
+        <v>145</v>
       </c>
       <c r="F33">
         <v>0</v>
       </c>
       <c r="G33">
-        <v>190</v>
+        <v>106</v>
       </c>
       <c r="H33">
-        <v>148</v>
+        <v>88</v>
       </c>
       <c r="I33">
         <v>0</v>
       </c>
       <c r="J33">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K33">
         <v>0</v>
@@ -1976,11 +1977,11 @@
         <v>33</v>
       </c>
       <c r="B34" s="2">
-        <f>AVERAGE(D34:M34)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C34" s="2">
-        <f>_xlfn.STDEV.P(D34:M34)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D34">
@@ -2019,12 +2020,12 @@
         <v>34</v>
       </c>
       <c r="B35" s="2">
-        <f>AVERAGE(D35:M35)</f>
-        <v>12.9</v>
+        <f t="shared" si="0"/>
+        <v>6.8</v>
       </c>
       <c r="C35" s="2">
-        <f>_xlfn.STDEV.P(D35:M35)</f>
-        <v>27.836846085718836</v>
+        <f t="shared" si="1"/>
+        <v>14.538225476308998</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -2033,10 +2034,10 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="G35">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H35">
         <v>0</v>
@@ -2045,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="J35">
-        <v>92</v>
+        <v>48</v>
       </c>
       <c r="K35">
         <v>0</v>
@@ -2062,12 +2063,12 @@
         <v>35</v>
       </c>
       <c r="B36" s="2">
-        <f>AVERAGE(D36:M36)</f>
-        <v>3.6</v>
+        <f t="shared" si="0"/>
+        <v>1.8</v>
       </c>
       <c r="C36" s="2">
-        <f>_xlfn.STDEV.P(D36:M36)</f>
-        <v>7.4188947963965628</v>
+        <f t="shared" si="1"/>
+        <v>3.7094473981982814</v>
       </c>
       <c r="D36">
         <v>0</v>
@@ -2076,7 +2077,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="G36">
         <v>0</v>
@@ -2088,7 +2089,7 @@
         <v>0</v>
       </c>
       <c r="J36">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="K36">
         <v>0</v>
@@ -2105,18 +2106,18 @@
         <v>36</v>
       </c>
       <c r="B37" s="2">
-        <f>AVERAGE(D37:M37)</f>
-        <v>2.8</v>
+        <f t="shared" si="0"/>
+        <v>1.7</v>
       </c>
       <c r="C37" s="2">
-        <f>_xlfn.STDEV.P(D37:M37)</f>
-        <v>7.1246052522227501</v>
+        <f t="shared" si="1"/>
+        <v>3.8742741255621032</v>
       </c>
       <c r="D37">
         <v>0</v>
       </c>
       <c r="E37">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="F37">
         <v>0</v>
@@ -2148,11 +2149,11 @@
         <v>37</v>
       </c>
       <c r="B38" s="2">
-        <f>AVERAGE(D38:M38)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C38" s="2">
-        <f>_xlfn.STDEV.P(D38:M38)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D38">
@@ -2191,42 +2192,42 @@
         <v>38</v>
       </c>
       <c r="B39" s="2">
-        <f>AVERAGE(D39:M39)</f>
-        <v>109.8</v>
+        <f t="shared" si="0"/>
+        <v>58.9</v>
       </c>
       <c r="C39" s="2">
-        <f>_xlfn.STDEV.P(D39:M39)</f>
-        <v>140.873560329822</v>
+        <f t="shared" si="1"/>
+        <v>75.936091550724413</v>
       </c>
       <c r="D39">
-        <v>70</v>
+        <v>38</v>
       </c>
       <c r="E39">
-        <v>263</v>
+        <v>142</v>
       </c>
       <c r="F39">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G39">
-        <v>464</v>
+        <v>250</v>
       </c>
       <c r="H39">
-        <v>138</v>
+        <v>73</v>
       </c>
       <c r="I39">
+        <v>2</v>
+      </c>
+      <c r="J39">
+        <v>38</v>
+      </c>
+      <c r="K39">
+        <v>38</v>
+      </c>
+      <c r="L39">
         <v>4</v>
       </c>
-      <c r="J39">
-        <v>72</v>
-      </c>
-      <c r="K39">
-        <v>73</v>
-      </c>
-      <c r="L39">
-        <v>6</v>
-      </c>
       <c r="M39">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.3">
@@ -2234,18 +2235,18 @@
         <v>39</v>
       </c>
       <c r="B40" s="2">
-        <f>AVERAGE(D40:M40)</f>
-        <v>1.7</v>
+        <f t="shared" si="0"/>
+        <v>1.5</v>
       </c>
       <c r="C40" s="2">
-        <f>_xlfn.STDEV.P(D40:M40)</f>
-        <v>5.1000000000000005</v>
+        <f t="shared" si="1"/>
+        <v>4.5</v>
       </c>
       <c r="D40">
         <v>0</v>
       </c>
       <c r="E40">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F40">
         <v>0</v>
@@ -2277,33 +2278,33 @@
         <v>40</v>
       </c>
       <c r="B41" s="2">
-        <f>AVERAGE(D41:M41)</f>
-        <v>172.8</v>
+        <f t="shared" si="0"/>
+        <v>95.1</v>
       </c>
       <c r="C41" s="2">
-        <f>_xlfn.STDEV.P(D41:M41)</f>
-        <v>308.49110197864701</v>
+        <f t="shared" si="1"/>
+        <v>171.67262449208377</v>
       </c>
       <c r="D41">
-        <v>94</v>
+        <v>51</v>
       </c>
       <c r="E41">
-        <v>1055</v>
+        <v>588</v>
       </c>
       <c r="F41">
         <v>0</v>
       </c>
       <c r="G41">
-        <v>288</v>
+        <v>153</v>
       </c>
       <c r="H41">
-        <v>185</v>
+        <v>99</v>
       </c>
       <c r="I41">
         <v>0</v>
       </c>
       <c r="J41">
-        <v>106</v>
+        <v>60</v>
       </c>
       <c r="K41">
         <v>0</v>
@@ -2320,27 +2321,27 @@
         <v>41</v>
       </c>
       <c r="B42" s="2">
-        <f>AVERAGE(D42:M42)</f>
-        <v>2.4</v>
+        <f t="shared" si="0"/>
+        <v>1.4</v>
       </c>
       <c r="C42" s="2">
-        <f>_xlfn.STDEV.P(D42:M42)</f>
-        <v>3.9799497484264799</v>
+        <f t="shared" si="1"/>
+        <v>2.2000000000000002</v>
       </c>
       <c r="D42">
         <v>0</v>
       </c>
       <c r="E42">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F42">
         <v>0</v>
       </c>
       <c r="G42">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H42">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I42">
         <v>0</v>
@@ -2363,18 +2364,18 @@
         <v>42</v>
       </c>
       <c r="B43" s="2">
-        <f>AVERAGE(D43:M43)</f>
-        <v>20.9</v>
+        <f t="shared" si="0"/>
+        <v>11.7</v>
       </c>
       <c r="C43" s="2">
-        <f>_xlfn.STDEV.P(D43:M43)</f>
-        <v>62.7</v>
+        <f t="shared" si="1"/>
+        <v>35.1</v>
       </c>
       <c r="D43">
         <v>0</v>
       </c>
       <c r="E43">
-        <v>209</v>
+        <v>117</v>
       </c>
       <c r="F43">
         <v>0</v>
@@ -2406,36 +2407,36 @@
         <v>43</v>
       </c>
       <c r="B44" s="2">
-        <f>AVERAGE(D44:M44)</f>
-        <v>79.5</v>
+        <f t="shared" si="0"/>
+        <v>43.9</v>
       </c>
       <c r="C44" s="2">
-        <f>_xlfn.STDEV.P(D44:M44)</f>
-        <v>93.331934513327212</v>
+        <f t="shared" si="1"/>
+        <v>51.750265699801005</v>
       </c>
       <c r="D44">
-        <v>262</v>
+        <v>145</v>
       </c>
       <c r="E44">
-        <v>218</v>
+        <v>122</v>
       </c>
       <c r="F44">
         <v>1</v>
       </c>
       <c r="G44">
-        <v>151</v>
+        <v>83</v>
       </c>
       <c r="H44">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="I44">
         <v>0</v>
       </c>
       <c r="J44">
-        <v>93</v>
+        <v>50</v>
       </c>
       <c r="K44">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="L44">
         <v>0</v>
@@ -2449,18 +2450,18 @@
         <v>44</v>
       </c>
       <c r="B45" s="2">
-        <f>AVERAGE(D45:M45)</f>
-        <v>2.9</v>
+        <f t="shared" si="0"/>
+        <v>1.6</v>
       </c>
       <c r="C45" s="2">
-        <f>_xlfn.STDEV.P(D45:M45)</f>
-        <v>8.6999999999999993</v>
+        <f t="shared" si="1"/>
+        <v>4.8</v>
       </c>
       <c r="D45">
         <v>0</v>
       </c>
       <c r="E45">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="F45">
         <v>0</v>
@@ -2492,36 +2493,36 @@
         <v>45</v>
       </c>
       <c r="B46" s="2">
-        <f>AVERAGE(D46:M46)</f>
-        <v>67</v>
+        <f t="shared" si="0"/>
+        <v>35.9</v>
       </c>
       <c r="C46" s="2">
-        <f>_xlfn.STDEV.P(D46:M46)</f>
-        <v>86.062767791885477</v>
+        <f t="shared" si="1"/>
+        <v>46.046606823956097</v>
       </c>
       <c r="D46">
-        <v>106</v>
+        <v>56</v>
       </c>
       <c r="E46">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F46">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="G46">
-        <v>244</v>
+        <v>131</v>
       </c>
       <c r="H46">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="I46">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="J46">
-        <v>213</v>
+        <v>114</v>
       </c>
       <c r="K46">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="L46">
         <v>0</v>
@@ -2535,18 +2536,18 @@
         <v>46</v>
       </c>
       <c r="B47" s="2">
-        <f>AVERAGE(D47:M47)</f>
-        <v>42.7</v>
+        <f t="shared" si="0"/>
+        <v>24.4</v>
       </c>
       <c r="C47" s="2">
-        <f>_xlfn.STDEV.P(D47:M47)</f>
-        <v>85.757856782921067</v>
+        <f t="shared" si="1"/>
+        <v>49.047324086029398</v>
       </c>
       <c r="D47">
-        <v>196</v>
+        <v>111</v>
       </c>
       <c r="E47">
-        <v>231</v>
+        <v>133</v>
       </c>
       <c r="F47">
         <v>0</v>
